--- a/template/PDCA.xlsx
+++ b/template/PDCA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26540" yWindow="800" windowWidth="28600" windowHeight="15640"/>
+    <workbookView xWindow="25600" yWindow="5600" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="P" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>现状</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,47 +80,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技术做的东西目标不明确,前台实现和后台实现.小版本细化不明确.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对业务刚接触,时间较短.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.整个业务体系较为庞大,整个按照小版本来划分.所以不清楚大体框架流程.小版本目标不明确.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.小版本划分明确. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.发布原型网址 2.PRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端服务层和后端服务层对接规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.现在还未开始对结过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.接口注释放在github 2.查看项目字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前后端可以解耦开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁克斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建文</t>
+    <t>需求不明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分时间调试js代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端接口一个文档,朝赵接口,太乱.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有小版本目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js报废,重新整理js.新旧js混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为美观而设计,没有为功能设计.不能针对功能.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不停在变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由里面没有煮熟,没有接口名字.路由没有命名规范.命名规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突过多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md检测问题过多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端服务层单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口数据需要整合 apigateway,接口所有数据返回.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前端php和后端php没有针对功能沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端服务层没有模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.后端提供功能设计和前端人员碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.命名规范问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时改一个文件,没有提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有pull代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.没有 api gateWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器方法名字保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天代码提交一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if else 这个可以屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分小函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model 抽象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端添加include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁克斌 倪静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求过来的文档,只有文字性的没有页面.2.这个需求可实现性?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求版本过大,没有冻结版本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.拆分小版本。2.需求分析 前端 前端服务层 后端服务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大版本拆分为小版本.每个小版本需求评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果没有实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品使用控件规范,项目字典.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安东 重构一个高保真原型 只有自己的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会出现多个版本的静态文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js 代码提出独立模块, 七牛代码封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求临时加的,不知道原来有封装好的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛封装一个块.表单验证.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛封装一层js包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> js两个版本,在一个系统 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有需求评审会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求不停的在给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">版本冻结 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高保真原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安东 辛琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j交付前端所有控件清晰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +375,24 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -354,8 +556,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -436,7 +650,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,18 +952,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
@@ -814,153 +1032,250 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="61" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:8" ht="82" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="149.25" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="52" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:8" ht="102.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:8" ht="113" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+    <row r="12" spans="1:8" ht="74" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="1:8" ht="98.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
+    <row r="14" spans="1:8" ht="77" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="96" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="80" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1"/>
+    <row r="19" spans="1:6" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:H3"/>
@@ -974,6 +1289,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
